--- a/results/BaggingClassifier_LGBMClassifier.xlsx
+++ b/results/BaggingClassifier_LGBMClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,42 +451,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
@@ -495,54 +515,66 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd58bd18280&gt;),
                 ('model',
-                 BaggingClassifier(estimator=LGBMClassifier(colsample_bytree=0.7,
-                                                            learning_rate=0.01,
-                                                            max_depth=1,
-                                                            min_child_samples=5,
-                                                            num_leaves=5,
+                 BaggingClassifier(estimator=LGBMClassifier(boosting_type='dart',
+                                                            class_weight='balanced',
+                                                            colsample_bytree=0.7,
+                                                            max_depth=7,
+                                                            min_child_samples=10,
+                                                            num_leaves=10,
                                                             random_state=42,
-                                                            subsample=0.7),
-                                   n_estimators=50, random_state=42))])</t>
+                                                            subsample=0.5),
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6687745098039215</v>
+        <v>0.6630952380952382</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 5, 'model__estimator__min_child_samples': 5, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'gbdt'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd584cd48b0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 10, 'model__estimator__min_child_samples': 10, 'model__estimator__max_depth': 7, 'model__estimator__learning_rate': 0.1, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.862197796748426</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5246533855033855</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7755102040816326</v>
       </c>
       <c r="G2" t="n">
+        <v>0.8328251156032036</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5513424603174603</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.901595238095238</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 0 1 1 0 1 1 1 0 0 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.860317994648417</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.02136366454400747</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5288745723231016</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1672657493698545</v>
       </c>
     </row>
     <row r="3">
@@ -550,53 +582,66 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91c9c6d430&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd58bdb5910&gt;),
                 ('model',
                  BaggingClassifier(estimator=LGBMClassifier(boosting_type='dart',
-                                                            colsample_bytree=0.5,
-                                                            learning_rate=0.05,
-                                                            max_depth=5,
-                                                            num_leaves=2,
+                                                            colsample_bytree=0.7,
+                                                            learning_rate=0.2,
+                                                            max_depth=1,
+                                                            min_child_samples=5,
+                                                            num_leaves=10,
                                                             random_state=42,
-                                                            subsample=0.7),
-                                   n_estimators=5, random_state=42))])</t>
+                                                            subsample=0.5),
+                                   n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7564285714285715</v>
+        <v>0.6852380952380952</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91c79543d0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.05, 'model__estimator__colsample_bytree': 0.5, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd584f32970&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 10, 'model__estimator__min_child_samples': 5, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.2, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 0 1 1 1 1 1 0]</t>
-        </is>
+        <v>0.878114146670198</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5878989676989677</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7692307692307692</v>
       </c>
       <c r="G3" t="n">
+        <v>0.8532225407176974</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5554380952380952</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9113500000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6486</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 1 1 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.868534202553887</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.01675186822812708</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.648624747311512</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.09884276924045908</v>
       </c>
     </row>
     <row r="4">
@@ -604,54 +649,65 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91c9d183d0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd58b901a00&gt;),
                 ('model',
-                 BaggingClassifier(estimator=LGBMClassifier(boosting_type='dart',
-                                                            colsample_bytree=0.9,
-                                                            learning_rate=0.05,
+                 BaggingClassifier(estimator=LGBMClassifier(class_weight='balanced',
+                                                            colsample_bytree=0.7,
                                                             max_depth=7,
-                                                            min_child_samples=10,
-                                                            num_leaves=2,
+                                                            min_child_samples=1,
+                                                            num_leaves=10,
                                                             random_state=42,
-                                                            subsample=0.7),
-                                   n_estimators=50, random_state=42))])</t>
+                                                            subsample=0.9),
+                                   random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7267787114845938</v>
+        <v>0.64</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91c793a2e0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 10, 'model__estimator__max_depth': 7, 'model__estimator__learning_rate': 0.05, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd584f3f220&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.9, 'model__estimator__num_leaves': 10, 'model__estimator__min_child_samples': 1, 'model__estimator__max_depth': 7, 'model__estimator__learning_rate': 0.1, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 0 1 0 1 1 1 1 0]</t>
-        </is>
+        <v>0.8868678027208108</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5411999555999556</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.608695652173913</v>
       </c>
       <c r="G4" t="n">
+        <v>0.8872404545251336</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5245761904761904</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8897105263157893</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5788</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 1 1 0 1 0 0 1 0 1 0 1 0 0 1 1 1 1 1 0 1 1 0 1 1 0 1 0 1 0]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8779480324012421</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01737101902008067</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6361719391719391</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1134672007585661</v>
       </c>
     </row>
     <row r="5">
@@ -659,52 +715,133 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91c7954d00&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd584f33970&gt;),
                 ('model',
-                 BaggingClassifier(estimator=LGBMClassifier(colsample_bytree=0.7,
+                 BaggingClassifier(estimator=LGBMClassifier(boosting_type='dart',
+                                                            class_weight='balanced',
+                                                            colsample_bytree=0.7,
+                                                            learning_rate=0.05,
+                                                            max_depth=1,
+                                                            num_leaves=10,
+                                                            random_state=42,
+                                                            subsample=0.9),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7016666666666665</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58716d4c0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.9, 'model__estimator__num_leaves': 10, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.05, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'dart'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8746001371957952</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5862196858696859</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8456244943045652</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.545334126984127</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9196666666666665</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6668000000000001</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 1 0 1 1 0 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd5873a6520&gt;),
+                ('model',
+                 BaggingClassifier(estimator=LGBMClassifier(class_weight='balanced',
+                                                            colsample_bytree=0.7,
                                                             learning_rate=0.01,
-                                                            max_depth=7,
-                                                            num_leaves=20,
+                                                            max_depth=5,
+                                                            min_child_samples=1,
+                                                            num_leaves=2,
                                                             random_state=42,
-                                                            subsample=0.7),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.8017156862745098</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91c796ebb0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 20, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 7, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'gbdt'}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>99</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8813776053156175</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0172452785510701</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6575548507048508</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1267223571359723</v>
+                                                            subsample=0.9),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6957142857142856</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd587114e80&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.9, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 1, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8962435701186036</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6132991286491286</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8750706384844633</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5619813492063492</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9257954545454545</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0 0 1 0 1 1 0 1 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_LGBMClassifier.xlsx
+++ b/results/BaggingClassifier_LGBMClassifier.xlsx
@@ -513,64 +513,62 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd58bd18280&gt;),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
                  BaggingClassifier(estimator=LGBMClassifier(boosting_type='dart',
-                                                            class_weight='balanced',
-                                                            colsample_bytree=0.7,
-                                                            max_depth=7,
-                                                            min_child_samples=10,
-                                                            num_leaves=10,
+                                                            colsample_bytree=0.5,
+                                                            learning_rate=0.01,
+                                                            max_depth=1,
+                                                            min_child_samples=5,
+                                                            num_leaves=2,
                                                             random_state=42,
-                                                            subsample=0.5),
-                                   n_estimators=5, random_state=42))])</t>
+                                                            subsample=0.7),
+                                   random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6630952380952382</v>
+        <v>0.6984432234432234</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd584cd48b0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 10, 'model__estimator__min_child_samples': 10, 'model__estimator__max_depth': 7, 'model__estimator__learning_rate': 0.1, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'dart'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 5, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.5, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.862197796748426</v>
+        <v>0.8552244409839967</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5246533855033855</v>
+        <v>0.5655480130980131</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7755102040816326</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8328251156032036</v>
+        <v>0.859119203699992</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5513424603174603</v>
+        <v>0.5678051587301587</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.7</v>
       </c>
       <c r="J2" t="n">
-        <v>0.901595238095238</v>
+        <v>0.8605957446808512</v>
       </c>
       <c r="K2" t="n">
-        <v>0.54</v>
+        <v>0.5943333333333333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.875</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 0 1 1 0 1 1 1 0 0 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+          <t>[1 1 1 1 1 1 0 0 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -582,62 +580,61 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd58bdb5910&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f766340&gt;),
                 ('model',
                  BaggingClassifier(estimator=LGBMClassifier(boosting_type='dart',
-                                                            colsample_bytree=0.7,
-                                                            learning_rate=0.2,
-                                                            max_depth=1,
-                                                            min_child_samples=5,
-                                                            num_leaves=10,
+                                                            colsample_bytree=0.5,
+                                                            learning_rate=0.05,
+                                                            max_depth=5,
+                                                            num_leaves=2,
                                                             random_state=42,
-                                                            subsample=0.5),
-                                   n_estimators=50, random_state=42))])</t>
+                                                            subsample=0.7),
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6852380952380952</v>
+        <v>0.6833699633699634</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd584f32970&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 10, 'model__estimator__min_child_samples': 5, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.2, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f73c250&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.05, 'model__estimator__colsample_bytree': 0.5, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.878114146670198</v>
+        <v>0.8672354309505026</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5878989676989677</v>
+        <v>0.5362722277722277</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8532225407176974</v>
+        <v>0.8573069239876172</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5554380952380952</v>
+        <v>0.597225</v>
       </c>
       <c r="I3" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9113500000000001</v>
+        <v>0.8880212765957447</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6486</v>
+        <v>0.5208333333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9375</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 1 1 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 0 1]</t>
+          <t>[1 1 1 1 1 0 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -649,128 +646,126 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd58b901a00&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f73c6a0&gt;),
                 ('model',
-                 BaggingClassifier(estimator=LGBMClassifier(class_weight='balanced',
-                                                            colsample_bytree=0.7,
-                                                            max_depth=7,
-                                                            min_child_samples=1,
-                                                            num_leaves=10,
+                 BaggingClassifier(estimator=LGBMClassifier(boosting_type='dart',
+                                                            colsample_bytree=0.5,
+                                                            learning_rate=0.01,
+                                                            max_depth=5,
+                                                            min_child_samples=5,
+                                                            num_leaves=2,
+                                                            random_state=42,
+                                                            subsample=0.5),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7077222777222777</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f510bb0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 5, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.5, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8798226901523074</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5715195415695414</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8717948717948718</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8682606778324597</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5916146825396826</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8966444444444445</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5876</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+                ('model',
+                 BaggingClassifier(estimator=LGBMClassifier(colsample_bytree=0.9,
+                                                            learning_rate=0.01,
+                                                            max_depth=1,
+                                                            min_child_samples=10,
+                                                            num_leaves=20,
                                                             random_state=42,
                                                             subsample=0.9),
                                    random_state=42))])</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd584f3f220&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.9, 'model__estimator__num_leaves': 10, 'model__estimator__min_child_samples': 1, 'model__estimator__max_depth': 7, 'model__estimator__learning_rate': 0.1, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8868678027208108</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5411999555999556</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.608695652173913</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8872404545251336</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5245761904761904</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8897105263157893</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.5788</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 1 1 0 1 0 0 1 0 1 0 1 0 0 1 1 1 1 1 0 1 1 0 1 1 0 1 0 1 0]</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd584f33970&gt;),
-                ('model',
-                 BaggingClassifier(estimator=LGBMClassifier(boosting_type='dart',
-                                                            class_weight='balanced',
-                                                            colsample_bytree=0.7,
-                                                            learning_rate=0.05,
-                                                            max_depth=1,
-                                                            num_leaves=10,
-                                                            random_state=42,
-                                                            subsample=0.9),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
       <c r="B5" t="n">
-        <v>0.7016666666666665</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58716d4c0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.9, 'model__estimator__num_leaves': 10, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.05, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'dart'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.9, 'model__estimator__num_leaves': 20, 'model__estimator__min_child_samples': 10, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8746001371957952</v>
+        <v>0.8772628911239615</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5862196858696859</v>
+        <v>0.6095717782217782</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5128205128205129</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8456244943045652</v>
+        <v>0.8523355697401049</v>
       </c>
       <c r="H5" t="n">
-        <v>0.545334126984127</v>
+        <v>0.5867119047619047</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9196666666666665</v>
+        <v>0.9151020408163265</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6668000000000001</v>
+        <v>0.6576666666666666</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4545454545454545</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 1 0 1 1 0 1 0 1 0 1 0 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -780,64 +775,62 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd5873a6520&gt;),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 BaggingClassifier(estimator=LGBMClassifier(class_weight='balanced',
-                                                            colsample_bytree=0.7,
+                 BaggingClassifier(estimator=LGBMClassifier(boosting_type='dart',
+                                                            colsample_bytree=0.5,
                                                             learning_rate=0.01,
-                                                            max_depth=5,
-                                                            min_child_samples=1,
-                                                            num_leaves=2,
+                                                            max_depth=1,
+                                                            min_child_samples=5,
+                                                            num_leaves=20,
                                                             random_state=42,
-                                                            subsample=0.9),
+                                                            subsample=0.7),
                                    n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6957142857142856</v>
+        <v>0.7288095238095238</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd587114e80&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.9, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 1, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 20, 'model__estimator__min_child_samples': 5, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.5, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8962435701186036</v>
+        <v>0.8872785024665917</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6132991286491286</v>
+        <v>0.6216035520035519</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8750706384844633</v>
+        <v>0.8939285151979025</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5619813492063492</v>
+        <v>0.6065603174603175</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9257954545454545</v>
+        <v>0.8907692307692308</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7</v>
+        <v>0.6628333333333335</v>
       </c>
       <c r="L6" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0 0 1 0 1 1 0 1 0 0 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">

--- a/results/BaggingClassifier_LGBMClassifier.xlsx
+++ b/results/BaggingClassifier_LGBMClassifier.xlsx
@@ -513,53 +513,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f17782aebb0&gt;),
                 ('model',
                  BaggingClassifier(estimator=LGBMClassifier(boosting_type='dart',
-                                                            colsample_bytree=0.5,
-                                                            learning_rate=0.01,
-                                                            max_depth=1,
-                                                            min_child_samples=5,
-                                                            num_leaves=2,
+                                                            class_weight='balanced',
+                                                            colsample_bytree=0.7,
+                                                            max_depth=7,
+                                                            min_child_samples=1,
+                                                            num_leaves=20,
                                                             random_state=42,
                                                             subsample=0.7),
-                                   random_state=42))])</t>
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6984432234432234</v>
+        <v>0.6832234432234432</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 5, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.5, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f177830d6d0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 20, 'model__estimator__min_child_samples': 1, 'model__estimator__max_depth': 7, 'model__estimator__learning_rate': 0.1, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8552244409839967</v>
+        <v>0.8679962342511506</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5655480130980131</v>
+        <v>0.5447079254079253</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7777777777777777</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="G2" t="n">
-        <v>0.859119203699992</v>
+        <v>0.893664852044648</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5678051587301587</v>
+        <v>0.5648507936507936</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8605957446808512</v>
+        <v>0.849276595744681</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5943333333333333</v>
+        <v>0.5558333333333334</v>
       </c>
       <c r="L2" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -568,7 +570,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 0 1 1 0 1 1 1 0 1 1 1 0 0 1 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -580,183 +582,187 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f766340&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f17783473d0&gt;),
+                ('model',
+                 BaggingClassifier(estimator=LGBMClassifier(class_weight='balanced',
+                                                            colsample_bytree=0.7,
+                                                            learning_rate=0.05,
+                                                            max_depth=1,
+                                                            num_leaves=20,
+                                                            random_state=42,
+                                                            subsample=0.5),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6024009324009324</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1778331b50&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 20, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.05, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8508567641794056</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.502971706071706</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7096774193548386</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8834599821879873</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6213809523809524</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.827468085106383</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0 1 0 1 1 0 0 1 1 1 1 0 1 0 1 0 1 1 1 0 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f177830d280&gt;),
                 ('model',
                  BaggingClassifier(estimator=LGBMClassifier(boosting_type='dart',
-                                                            colsample_bytree=0.5,
+                                                            class_weight='balanced',
+                                                            colsample_bytree=0.9,
+                                                            learning_rate=0.2,
+                                                            max_depth=7,
+                                                            min_child_samples=1,
+                                                            num_leaves=20,
+                                                            random_state=42,
+                                                            subsample=0.9),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6676984126984127</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f17783e1d00&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.9, 'model__estimator__num_leaves': 20, 'model__estimator__min_child_samples': 1, 'model__estimator__max_depth': 7, 'model__estimator__learning_rate': 0.2, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'dart'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8832657369858659</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.543036913086913</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8879786666230127</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5840353174603176</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8809999999999998</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5392</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 1 1 0 0 0 0 1 1 1 0 1 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f177830d5e0&gt;),
+                ('model',
+                 BaggingClassifier(estimator=LGBMClassifier(class_weight='balanced',
+                                                            colsample_bytree=0.7,
                                                             learning_rate=0.05,
-                                                            max_depth=5,
-                                                            num_leaves=2,
+                                                            max_depth=7,
+                                                            min_child_samples=1,
+                                                            num_leaves=20,
                                                             random_state=42,
                                                             subsample=0.7),
                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.6833699633699634</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f73c250&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 20, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.05, 'model__estimator__colsample_bytree': 0.5, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8672354309505026</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5362722277722277</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8108108108108109</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8573069239876172</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.597225</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.8880212765957447</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.5208333333333333</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 0 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f73c6a0&gt;),
-                ('model',
-                 BaggingClassifier(estimator=LGBMClassifier(boosting_type='dart',
-                                                            colsample_bytree=0.5,
-                                                            learning_rate=0.01,
-                                                            max_depth=5,
-                                                            min_child_samples=5,
-                                                            num_leaves=2,
-                                                            random_state=42,
-                                                            subsample=0.5),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7077222777222777</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f510bb0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.5, 'model__estimator__num_leaves': 2, 'model__estimator__min_child_samples': 5, 'model__estimator__max_depth': 5, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.5, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8798226901523074</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5715195415695414</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8717948717948718</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8682606778324597</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5916146825396826</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8966444444444445</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.5876</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
-                ('model',
-                 BaggingClassifier(estimator=LGBMClassifier(colsample_bytree=0.9,
-                                                            learning_rate=0.01,
-                                                            max_depth=1,
-                                                            min_child_samples=10,
-                                                            num_leaves=20,
-                                                            random_state=42,
-                                                            subsample=0.9),
-                                   random_state=42))])</t>
-        </is>
-      </c>
       <c r="B5" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.6713586413586413</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__subsample': 0.9, 'model__estimator__num_leaves': 20, 'model__estimator__min_child_samples': 10, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.9, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'gbdt'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f177846d370&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 20, 'model__estimator__min_child_samples': 1, 'model__estimator__max_depth': 7, 'model__estimator__learning_rate': 0.05, 'model__estimator__colsample_bytree': 0.7, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8772628911239615</v>
+        <v>0.8860464030078642</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6095717782217782</v>
+        <v>0.5629210955710956</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.5185185185185186</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8523355697401049</v>
+        <v>0.8930644524907504</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5867119047619047</v>
+        <v>0.5812738095238096</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9151020408163265</v>
+        <v>0.8822653061224489</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6576666666666666</v>
+        <v>0.5628333333333334</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -765,7 +771,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[0 0 0 1 1 1 0 0 1 0 1 0 0 1 1 0 1 1 1 1 0 0 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -775,53 +781,55 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f1778347520&gt;),
                 ('model',
                  BaggingClassifier(estimator=LGBMClassifier(boosting_type='dart',
+                                                            class_weight='balanced',
                                                             colsample_bytree=0.5,
-                                                            learning_rate=0.01,
-                                                            max_depth=1,
-                                                            min_child_samples=5,
-                                                            num_leaves=20,
+                                                            max_depth=7,
+                                                            min_child_samples=1,
+                                                            num_leaves=10,
                                                             random_state=42,
                                                             subsample=0.7),
                                    n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7288095238095238</v>
+        <v>0.7411888111888112</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 20, 'model__estimator__min_child_samples': 5, 'model__estimator__max_depth': 1, 'model__estimator__learning_rate': 0.01, 'model__estimator__colsample_bytree': 0.5, 'model__estimator__class_weight': None, 'model__estimator__boosting_type': 'dart'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f17782922b0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__subsample': 0.7, 'model__estimator__num_leaves': 10, 'model__estimator__min_child_samples': 1, 'model__estimator__max_depth': 7, 'model__estimator__learning_rate': 0.1, 'model__estimator__colsample_bytree': 0.5, 'model__estimator__class_weight': 'balanced', 'model__estimator__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8872785024665917</v>
+        <v>0.8793210018435914</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6216035520035519</v>
+        <v>0.6026807969807969</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8939285151979025</v>
+        <v>0.9183555061846799</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6065603174603175</v>
+        <v>0.6187138888888889</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8907692307692308</v>
+        <v>0.8484615384615385</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6628333333333335</v>
+        <v>0.6075</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -830,7 +838,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 1 1 0 0 0 0 1 1 1 0 1 1 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">
